--- a/simple-xlsx/tests/write-tests/styles/styles.xlsx
+++ b/simple-xlsx/tests/write-tests/styles/styles.xlsx
@@ -57,35 +57,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Matura MT Script Capitals"/>
+      <family val="4"/>
+    </font>
+    <font>
       <sz val="20"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="华文琥珀"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Matura MT Script Capitals"/>
-      <family val="4"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,16 +99,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,35 +498,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="2:5" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="2:5" ht="26.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="9"/>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.75">
-      <c r="B3" s="4">
+    <row r="4" spans="2:5" ht="33" x14ac:dyDescent="0.75">
+      <c r="B4" s="3"/>
+      <c r="C4" s="6">
         <v>121</v>
       </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
